--- a/Scenarios/common/masterinput_v7.xlsx
+++ b/Scenarios/common/masterinput_v7.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4308" windowHeight="8028" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4305" windowHeight="8025" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
-    <sheet name="RotationsK" sheetId="13" r:id="rId2"/>
-    <sheet name="RotationsO" sheetId="11" r:id="rId3"/>
-    <sheet name="Manure" sheetId="10" r:id="rId4"/>
-    <sheet name="Crops" sheetId="2" r:id="rId5"/>
-    <sheet name="Crops_JB6" sheetId="7" r:id="rId6"/>
-    <sheet name="soil_climate" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="RotationsK" sheetId="13" r:id="rId3"/>
+    <sheet name="RotationsKSB" sheetId="14" r:id="rId4"/>
+    <sheet name="RotationsO" sheetId="11" r:id="rId5"/>
+    <sheet name="Manure" sheetId="10" r:id="rId6"/>
+    <sheet name="Crops" sheetId="2" r:id="rId7"/>
+    <sheet name="Crops_JB6" sheetId="7" r:id="rId8"/>
+    <sheet name="soil_climate" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Crops!$A$1:$N$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Crops!$A$1:$N$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -167,9 +169,6 @@
     <t>Harvest1</t>
   </si>
   <si>
-    <t>Ryegrass, Wclover</t>
-  </si>
-  <si>
     <t>Spring Wheat</t>
   </si>
   <si>
@@ -200,9 +199,6 @@
     <t xml:space="preserve">Vårhvede GG </t>
   </si>
   <si>
-    <t>Silomajs E</t>
-  </si>
-  <si>
     <t>Sowing1</t>
   </si>
   <si>
@@ -338,9 +334,6 @@
     <t>East.dwf</t>
   </si>
   <si>
-    <t>West.dwf</t>
-  </si>
-  <si>
     <t>JB1med</t>
   </si>
   <si>
@@ -368,9 +361,6 @@
     <t>JB6high</t>
   </si>
   <si>
-    <t>15/7, 15/8, 25/9</t>
-  </si>
-  <si>
     <t>sorg 1) (leaf 1) (stem 1) (stub 5 [cm]</t>
   </si>
   <si>
@@ -434,9 +424,6 @@
     <t>sorg 0.99)(leaf 0.7)(stem 0.7)(stub 10 [cm]</t>
   </si>
   <si>
-    <t>stub 7 [cm]</t>
-  </si>
-  <si>
     <t>sorg 1) (leaf 1) (stem 1) (stub 10 [cm]</t>
   </si>
   <si>
@@ -447,6 +434,45 @@
   </si>
   <si>
     <t>sorg 1) (leaf 1) (stem 1) (stub 7 [cm]</t>
+  </si>
+  <si>
+    <t>Graes CC</t>
+  </si>
+  <si>
+    <t>Vårbyg til grønkorn</t>
+  </si>
+  <si>
+    <t>Kløvergræs til slæt</t>
+  </si>
+  <si>
+    <t>Vårbyg til modenhed</t>
+  </si>
+  <si>
+    <t>Kartoffel, stivelses</t>
+  </si>
+  <si>
+    <t>Frøgræs, alm rajgræs</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>Soiltype1</t>
+  </si>
+  <si>
+    <t>1/8, 20/9</t>
+  </si>
+  <si>
+    <t>Silomajs; Foulum</t>
+  </si>
+  <si>
+    <t>sorg 0.99) (leaf 0.9) (stem 0.9) (stub 7 [cm]</t>
+  </si>
+  <si>
+    <t>sorg 0.99) (leaf 0.8) (stem 0.8) (stub 10 [cm]</t>
+  </si>
+  <si>
+    <t>sorg 0.99) (leaf 0.1) (stem 0.1) (stub 10 [cm]</t>
   </si>
 </sst>
 </file>
@@ -573,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -886,11 +912,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1172,6 +1390,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,58 +1730,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K9"/>
+      <selection activeCell="C1" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>29</v>
@@ -1518,52 +1796,52 @@
         <v>39</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="T1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="U1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="W1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="13" t="s">
+      <c r="X1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="Z1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84">
         <v>1</v>
       </c>
@@ -1571,7 +1849,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -1595,13 +1873,13 @@
         <v>41</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>3</v>
@@ -1616,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S2" s="95" t="s">
         <v>40</v>
@@ -1628,22 +1906,22 @@
         <v>5</v>
       </c>
       <c r="V2" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W2" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" s="67" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1651,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -1675,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>25</v>
@@ -1696,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S3" s="16" t="s">
         <v>7</v>
@@ -1723,7 +2001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1731,7 +2009,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>41</v>
@@ -1755,16 +2033,16 @@
         <v>8</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>1</v>
@@ -1776,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S4" s="32" t="s">
         <v>7</v>
@@ -1803,7 +2081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1811,7 +2089,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>8</v>
@@ -1835,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>1</v>
@@ -1856,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S5" s="20" t="s">
         <v>2</v>
@@ -1868,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="V5" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W5" s="69" t="s">
         <v>25</v>
@@ -1883,7 +2161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1891,7 +2169,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>8</v>
@@ -1915,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N6" s="37" t="s">
         <v>2</v>
@@ -1930,13 +2208,13 @@
         <v>2</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="T6" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" s="16" t="s">
         <v>1</v>
@@ -1945,7 +2223,7 @@
         <v>18</v>
       </c>
       <c r="W6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X6" s="42" t="s">
         <v>1</v>
@@ -1957,7 +2235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1965,7 +2243,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
@@ -1993,7 +2271,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>9</v>
@@ -2004,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S7" s="18" t="s">
         <v>27</v>
@@ -2028,78 +2306,78 @@
         <v>27</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="L8" s="46" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>67</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P8" s="46"/>
       <c r="Q8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T8" s="46"/>
       <c r="U8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z8" s="46"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2391,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>33</v>
@@ -2129,7 +2407,7 @@
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N9" s="46" t="s">
         <v>32</v>
@@ -2156,7 +2434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2208,9 +2486,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -2234,9 +2512,9 @@
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2252,80 +2530,1061 @@
       </c>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+    <row r="13" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
       <c r="U13" s="39"/>
     </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="1048575" man="1"/>
+    <brk id="14" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="111">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="105">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="107">
+        <v>3</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="107">
+        <v>4</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="107">
+        <v>5</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="111">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="105">
+        <v>1</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107">
+        <v>2</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107">
+        <v>3</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="107">
+        <v>4</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107">
+        <v>5</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="111">
+        <v>6</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>29</v>
@@ -2340,34 +3599,34 @@
         <v>39</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84">
         <v>1</v>
       </c>
@@ -2375,7 +3634,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>17</v>
@@ -2399,10 +3658,10 @@
         <v>41</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>3</v>
@@ -2414,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="95" t="s">
         <v>40</v>
@@ -2426,10 +3685,10 @@
         <v>25</v>
       </c>
       <c r="T2" s="41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2437,7 +3696,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
@@ -2461,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>36</v>
@@ -2476,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="47" t="s">
         <v>7</v>
@@ -2491,7 +3750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2499,7 +3758,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>41</v>
@@ -2523,13 +3782,13 @@
         <v>8</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>1</v>
@@ -2538,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="32" t="s">
         <v>7</v>
@@ -2553,7 +3812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2561,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>8</v>
@@ -2585,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>36</v>
@@ -2600,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="20" t="s">
         <v>2</v>
@@ -2615,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2623,7 +3882,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>8</v>
@@ -2647,7 +3906,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>36</v>
@@ -2659,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="25" t="s">
         <v>1</v>
@@ -2674,7 +3933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2682,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
@@ -2717,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="18" t="s">
         <v>27</v>
@@ -2732,69 +3991,69 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="L8" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>67</v>
-      </c>
       <c r="M8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S8" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T8" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +4074,7 @@
       <c r="S9" s="46"/>
       <c r="T9" s="46"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2865,9 +4124,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>12</v>
@@ -2890,9 +4149,9 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2908,63 +4167,733 @@
       </c>
       <c r="S12" s="38"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="L11" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>29</v>
@@ -2976,34 +4905,34 @@
         <v>31</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84">
         <v>1</v>
       </c>
@@ -3026,10 +4955,10 @@
         <v>41</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>3</v>
@@ -3041,19 +4970,19 @@
         <v>40</v>
       </c>
       <c r="M2" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3076,10 +5005,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>25</v>
@@ -3103,7 +5032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3126,13 +5055,13 @@
         <v>8</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="70" t="s">
         <v>19</v>
@@ -3153,7 +5082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3176,10 +5105,10 @@
         <v>8</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>1</v>
@@ -3191,7 +5120,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="69" t="s">
         <v>25</v>
@@ -3203,7 +5132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3226,22 +5155,22 @@
         <v>8</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>18</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>18</v>
@@ -3250,7 +5179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3274,7 +5203,7 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>9</v>
@@ -3286,17 +5215,17 @@
       <c r="M7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="99" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3316,7 +5245,7 @@
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3327,7 +5256,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>33</v>
@@ -3342,7 +5271,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="46" t="s">
         <v>32</v>
@@ -3366,7 +5295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3398,9 +5327,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -3411,15 +5340,15 @@
       <c r="L11" s="46"/>
       <c r="O11" s="38"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -3428,25 +5357,85 @@
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -3454,58 +5443,54 @@
         <v>34</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="62">
         <v>0</v>
       </c>
-      <c r="D2" s="62">
-        <v>85</v>
-      </c>
+      <c r="D2" s="62"/>
       <c r="E2" s="62">
         <v>170</v>
       </c>
       <c r="F2" s="61"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="61"/>
       <c r="E3" s="62">
         <v>170</v>
       </c>
-      <c r="F3" s="62">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="62">
@@ -3518,12 +5503,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="62">
@@ -3534,12 +5519,12 @@
       </c>
       <c r="F5" s="61"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="62">
@@ -3550,12 +5535,12 @@
       </c>
       <c r="F6" s="61"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="62">
         <v>0</v>
@@ -3566,12 +5551,12 @@
       <c r="E7" s="63"/>
       <c r="F7" s="61"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="62">
         <v>0</v>
@@ -3584,12 +5569,12 @@
       </c>
       <c r="F8" s="61"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="62">
         <v>0</v>
@@ -3602,12 +5587,12 @@
       </c>
       <c r="F9" s="61"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="61">
         <v>0</v>
@@ -3623,7 +5608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3631,25 +5616,26 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="2"/>
-    <col min="8" max="8" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.88671875" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="18.33203125" style="2"/>
+    <col min="7" max="7" width="18.28515625" style="2"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="18.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>15</v>
       </c>
@@ -3657,10 +5643,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="49" t="s">
         <v>43</v>
@@ -3669,37 +5655,37 @@
         <v>42</v>
       </c>
       <c r="G1" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="75" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="L1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="78" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" s="59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P1" s="80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
@@ -3715,7 +5701,7 @@
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="76"/>
       <c r="I2" s="81">
@@ -3730,12 +5716,12 @@
         <v>11</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="81">
         <v>43362</v>
@@ -3749,7 +5735,7 @@
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="76"/>
       <c r="I3" s="81">
@@ -3764,10 +5750,10 @@
         <v>11</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>9</v>
       </c>
@@ -3798,10 +5784,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>6</v>
       </c>
@@ -3817,7 +5803,7 @@
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="81">
@@ -3832,10 +5818,10 @@
         <v>14</v>
       </c>
       <c r="O5" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
@@ -3851,7 +5837,7 @@
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="76"/>
       <c r="I6" s="81">
@@ -3866,12 +5852,12 @@
         <v>22</v>
       </c>
       <c r="O6" s="79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="82">
         <v>43556</v>
@@ -3885,7 +5871,7 @@
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="76"/>
       <c r="I7" s="81">
@@ -3899,10 +5885,10 @@
       </c>
       <c r="N7" s="58"/>
       <c r="O7" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>1</v>
       </c>
@@ -3931,10 +5917,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>41</v>
       </c>
@@ -3945,16 +5931,16 @@
         <v>43557</v>
       </c>
       <c r="D9" s="82">
-        <v>43558</v>
+        <v>43605</v>
       </c>
       <c r="E9" s="82">
         <v>43636</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>35</v>
@@ -3963,10 +5949,10 @@
         <v>43568</v>
       </c>
       <c r="J9" s="81">
-        <v>43662</v>
+        <v>43637</v>
       </c>
       <c r="K9" s="77">
-        <v>43693</v>
+        <v>43679</v>
       </c>
       <c r="L9" s="78"/>
       <c r="M9" s="60">
@@ -3976,15 +5962,15 @@
         <v>963</v>
       </c>
       <c r="O9" s="79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P9" s="79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="82">
         <v>43556</v>
@@ -4018,10 +6004,10 @@
         <v>970</v>
       </c>
       <c r="O10" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -4057,10 +6043,10 @@
         <v>970</v>
       </c>
       <c r="O11" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>20</v>
       </c>
@@ -4098,13 +6084,13 @@
         <v>970</v>
       </c>
       <c r="O12" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P12" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>37</v>
       </c>
@@ -4124,7 +6110,7 @@
         <v>43733</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>35</v>
@@ -4142,13 +6128,13 @@
         <v>970</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P13" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>27</v>
       </c>
@@ -4169,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="81">
         <v>43525</v>
@@ -4186,12 +6172,12 @@
         <v>970</v>
       </c>
       <c r="O14" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="81">
         <v>43362</v>
@@ -4205,7 +6191,7 @@
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="81">
@@ -4223,10 +6209,10 @@
         <v>970</v>
       </c>
       <c r="O15" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>40</v>
       </c>
@@ -4264,10 +6250,10 @@
         <v>101</v>
       </c>
       <c r="O16" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>7</v>
       </c>
@@ -4294,10 +6280,10 @@
         <v>103</v>
       </c>
       <c r="O17" s="79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +6299,7 @@
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="81">
@@ -4328,10 +6314,10 @@
         <v>151</v>
       </c>
       <c r="O18" s="79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>17</v>
       </c>
@@ -4347,7 +6333,7 @@
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="53" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="81">
@@ -4362,10 +6348,10 @@
         <v>216</v>
       </c>
       <c r="O19" s="79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>5</v>
       </c>
@@ -4381,7 +6367,7 @@
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="81">
@@ -4396,10 +6382,10 @@
         <v>160</v>
       </c>
       <c r="O20" s="79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>18</v>
       </c>
@@ -4428,10 +6414,10 @@
         <v>30</v>
       </c>
       <c r="O21" s="79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>19</v>
       </c>
@@ -4439,7 +6425,7 @@
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="53" t="s">
         <v>35</v>
@@ -4455,10 +6441,10 @@
         <v>261</v>
       </c>
       <c r="O22" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>8</v>
       </c>
@@ -4488,12 +6474,12 @@
         <v>260</v>
       </c>
       <c r="O23" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B24" s="82">
         <v>43586</v>
@@ -4509,10 +6495,10 @@
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="53" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="H24" s="76" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I24" s="81">
         <v>43590</v>
@@ -4529,12 +6515,12 @@
         <v>970</v>
       </c>
       <c r="O24" s="79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="82">
         <v>43556</v>
@@ -4548,7 +6534,7 @@
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="81">
@@ -4563,10 +6549,10 @@
         <v>252</v>
       </c>
       <c r="O25" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +6564,7 @@
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H26" s="76"/>
       <c r="I26" s="81">
@@ -4593,12 +6579,12 @@
         <v>252</v>
       </c>
       <c r="O26" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="82">
         <v>43556</v>
@@ -4627,12 +6613,12 @@
         <v>261</v>
       </c>
       <c r="O27" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="82"/>
       <c r="C28" s="82"/>
@@ -4657,12 +6643,12 @@
         <v>261</v>
       </c>
       <c r="O28" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="82">
         <v>43556</v>
@@ -4695,12 +6681,12 @@
         <v>261</v>
       </c>
       <c r="O29" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
@@ -4729,15 +6715,15 @@
         <v>261</v>
       </c>
       <c r="O30" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="I31" s="73"/>
       <c r="J31" s="74"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4752,7 +6738,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4772,30 +6758,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="2"/>
-    <col min="8" max="8" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.88671875" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="18.33203125" style="2"/>
+    <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="18.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>15</v>
       </c>
@@ -4803,10 +6790,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="49" t="s">
         <v>43</v>
@@ -4815,37 +6802,37 @@
         <v>42</v>
       </c>
       <c r="G1" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="75" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="L1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="78" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" s="59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P1" s="80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
@@ -4861,7 +6848,7 @@
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="76"/>
       <c r="I2" s="81">
@@ -4876,12 +6863,12 @@
         <v>11</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="81">
         <v>43362</v>
@@ -4895,7 +6882,7 @@
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="76"/>
       <c r="I3" s="81">
@@ -4910,10 +6897,10 @@
         <v>11</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>9</v>
       </c>
@@ -4944,10 +6931,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>6</v>
       </c>
@@ -4963,7 +6950,7 @@
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="76"/>
       <c r="I5" s="81">
@@ -4978,10 +6965,10 @@
         <v>14</v>
       </c>
       <c r="O5" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
@@ -4997,7 +6984,7 @@
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="76"/>
       <c r="I6" s="81">
@@ -5012,12 +6999,12 @@
         <v>22</v>
       </c>
       <c r="O6" s="79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="82">
         <v>43405</v>
@@ -5031,7 +7018,7 @@
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="76"/>
       <c r="I7" s="81">
@@ -5045,10 +7032,10 @@
       </c>
       <c r="N7" s="58"/>
       <c r="O7" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>1</v>
       </c>
@@ -5077,10 +7064,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>41</v>
       </c>
@@ -5091,25 +7078,25 @@
         <v>43557</v>
       </c>
       <c r="D9" s="82">
-        <v>43558</v>
+        <v>43605</v>
       </c>
       <c r="E9" s="82">
         <v>43636</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="81">
         <v>43568</v>
       </c>
       <c r="J9" s="81">
-        <v>43662</v>
+        <v>43637</v>
       </c>
       <c r="K9" s="77">
         <v>43679</v>
@@ -5122,15 +7109,15 @@
         <v>963</v>
       </c>
       <c r="O9" s="79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P9" s="79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="82">
         <v>43405</v>
@@ -5164,10 +7151,10 @@
         <v>970</v>
       </c>
       <c r="O10" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -5203,10 +7190,10 @@
         <v>970</v>
       </c>
       <c r="O11" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>20</v>
       </c>
@@ -5228,8 +7215,8 @@
       <c r="G12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="76" t="s">
-        <v>44</v>
+      <c r="H12" s="53" t="s">
+        <v>35</v>
       </c>
       <c r="I12" s="81">
         <v>43568</v>
@@ -5244,13 +7231,13 @@
         <v>970</v>
       </c>
       <c r="O12" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P12" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>37</v>
       </c>
@@ -5270,10 +7257,10 @@
         <v>43733</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="76" t="s">
         <v>44</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="81">
         <v>43568</v>
@@ -5288,13 +7275,13 @@
         <v>970</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P13" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>27</v>
       </c>
@@ -5315,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="81">
         <v>43525</v>
@@ -5332,12 +7319,12 @@
         <v>970</v>
       </c>
       <c r="O14" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="81">
         <v>43362</v>
@@ -5351,7 +7338,7 @@
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="81">
@@ -5369,10 +7356,10 @@
         <v>970</v>
       </c>
       <c r="O15" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>40</v>
       </c>
@@ -5410,10 +7397,10 @@
         <v>101</v>
       </c>
       <c r="O16" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>7</v>
       </c>
@@ -5440,10 +7427,10 @@
         <v>103</v>
       </c>
       <c r="O17" s="79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>4</v>
       </c>
@@ -5459,7 +7446,7 @@
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="81">
@@ -5474,10 +7461,10 @@
         <v>151</v>
       </c>
       <c r="O18" s="79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>17</v>
       </c>
@@ -5493,7 +7480,7 @@
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="53" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="81">
@@ -5508,10 +7495,10 @@
         <v>216</v>
       </c>
       <c r="O19" s="79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>5</v>
       </c>
@@ -5527,7 +7514,7 @@
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="81">
@@ -5542,10 +7529,10 @@
         <v>160</v>
       </c>
       <c r="O20" s="79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>18</v>
       </c>
@@ -5574,10 +7561,10 @@
         <v>30</v>
       </c>
       <c r="O21" s="79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>19</v>
       </c>
@@ -5585,7 +7572,7 @@
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="53" t="s">
         <v>35</v>
@@ -5601,10 +7588,10 @@
         <v>261</v>
       </c>
       <c r="O22" s="79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>8</v>
       </c>
@@ -5634,12 +7621,12 @@
         <v>260</v>
       </c>
       <c r="O23" s="79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B24" s="82">
         <v>43586</v>
@@ -5655,10 +7642,10 @@
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="53" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="H24" s="76" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I24" s="81">
         <v>43590</v>
@@ -5675,12 +7662,12 @@
         <v>970</v>
       </c>
       <c r="O24" s="79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="82">
         <v>43405</v>
@@ -5694,7 +7681,7 @@
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="81">
@@ -5709,10 +7696,10 @@
         <v>252</v>
       </c>
       <c r="O25" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>36</v>
       </c>
@@ -5724,7 +7711,7 @@
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H26" s="76"/>
       <c r="I26" s="81">
@@ -5739,12 +7726,12 @@
         <v>252</v>
       </c>
       <c r="O26" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="82">
         <v>43405</v>
@@ -5773,12 +7760,12 @@
         <v>261</v>
       </c>
       <c r="O27" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="82"/>
       <c r="C28" s="82"/>
@@ -5803,12 +7790,12 @@
         <v>261</v>
       </c>
       <c r="O28" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="82">
         <v>43405</v>
@@ -5841,12 +7828,12 @@
         <v>261</v>
       </c>
       <c r="O29" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
@@ -5875,15 +7862,15 @@
         <v>261</v>
       </c>
       <c r="O30" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="I31" s="73"/>
       <c r="J31" s="74"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5898,7 +7885,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5917,77 +7904,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="98" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" s="97"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
